--- a/data-raw/butte_release_edi.xlsx
+++ b/data-raw/butte_release_edi.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Release EDI"/>
+    <sheet r:id="rId4" name="Release_EDI" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Release_EDI">'Release_EDI'!$A$1:$P$21</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -287,6 +291,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -2095,4 +2103,1027 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>projectDescriptionID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>releaseID</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>commonName</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>markedRun</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>markedLifeStage</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>markedFishOrigin</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>sourceOfFishSite</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>releaseSite</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>releaseSubSite</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>nReleased</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>releaseTime</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>testDays</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>appliedMarkType</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>appliedMarkColor</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>appliedMarkPosition</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>appliedMarkCode</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Not recorded</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Not recorded</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>255</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Not recorded</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Not recorded</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="L4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0">
+        <v>255</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="L5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0">
+        <v>256</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="J6" s="0">
+        <v>100</v>
+      </c>
+      <c r="K6" s="10">
+        <v>44202.5750578704</v>
+      </c>
+      <c r="L6" s="0">
+        <v>7</v>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0">
+        <v>257</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="J7" s="0">
+        <v>100</v>
+      </c>
+      <c r="K7" s="10">
+        <v>44202.5208680556</v>
+      </c>
+      <c r="L7" s="0">
+        <v>7</v>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0">
+        <v>258</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="J8" s="0">
+        <v>100</v>
+      </c>
+      <c r="K8" s="10">
+        <v>44481.5832060185</v>
+      </c>
+      <c r="L8" s="0">
+        <v>7</v>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0">
+        <v>259</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0">
+        <v>260</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0">
+        <v>261</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="J11" s="0">
+        <v>100</v>
+      </c>
+      <c r="K11" s="10">
+        <v>44202.5208680556</v>
+      </c>
+      <c r="L11" s="0">
+        <v>6</v>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>262</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0">
+        <v>263</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J13" s="0">
+        <v>249</v>
+      </c>
+      <c r="K13" s="10">
+        <v>44210.5213657407</v>
+      </c>
+      <c r="L13" s="0">
+        <v>6</v>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0">
+        <v>264</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J14" s="0">
+        <v>109</v>
+      </c>
+      <c r="K14" s="10">
+        <v>44237.5002893519</v>
+      </c>
+      <c r="L14" s="0">
+        <v>7</v>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0">
+        <v>265</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J15" s="0">
+        <v>349</v>
+      </c>
+      <c r="K15" s="10">
+        <v>44251.5209143519</v>
+      </c>
+      <c r="L15" s="0">
+        <v>7</v>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0">
+        <v>266</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J16" s="0">
+        <v>197</v>
+      </c>
+      <c r="K16" s="10">
+        <v>44265.5004166667</v>
+      </c>
+      <c r="L16" s="0">
+        <v>7</v>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0">
+        <v>267</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J17" s="0">
+        <v>160</v>
+      </c>
+      <c r="K17" s="10">
+        <v>44294.5418171296</v>
+      </c>
+      <c r="L17" s="0">
+        <v>7</v>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0">
+        <v>11</v>
+      </c>
+      <c r="B18" s="0">
+        <v>268</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J18" s="0">
+        <v>500</v>
+      </c>
+      <c r="K18" s="10">
+        <v>44301.5418865741</v>
+      </c>
+      <c r="L18" s="0">
+        <v>7</v>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0">
+        <v>11</v>
+      </c>
+      <c r="B19" s="0">
+        <v>269</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J19" s="0">
+        <v>250</v>
+      </c>
+      <c r="K19" s="10">
+        <v>44600.5106365741</v>
+      </c>
+      <c r="L19" s="0">
+        <v>7</v>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O19" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0">
+        <v>11</v>
+      </c>
+      <c r="B20" s="0">
+        <v>270</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J20" s="0">
+        <v>249</v>
+      </c>
+      <c r="K20" s="10">
+        <v>44607.5523032407</v>
+      </c>
+      <c r="L20" s="0">
+        <v>7</v>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
+        <v>11</v>
+      </c>
+      <c r="B21" s="0">
+        <v>271</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J21" s="0">
+        <v>185</v>
+      </c>
+      <c r="K21" s="10">
+        <v>44628.555775463</v>
+      </c>
+      <c r="L21" s="0">
+        <v>7</v>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O21" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/butte_release_edi.xlsx
+++ b/data-raw/butte_release_edi.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Release EDI"/>
-    <sheet r:id="rId4" name="Release_EDI" sheetId="2"/>
+    <sheet r:id="rId4" sheetId="2" name="Release_EDI"/>
   </sheets>
   <definedNames>
-    <definedName name="Release_EDI">'Release_EDI'!$A$1:$P$21</definedName>
+    <definedName name="Release_EDI">'Release_EDI'!$A$1:$Q$17</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -2107,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2196,99 +2196,136 @@
           <t>appliedMarkCode</t>
         </is>
       </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>includeAnalysis</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Not recorded</t>
+          <t>Spring</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>Not recorded</t>
+          <t>Juvenile</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
+          <t>Parrott-Phelan canal trap box</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2" s="10">
-        <v>1</v>
+        <v>44202.5750578704</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>Not recorded</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Not recorded</t>
-        </is>
-      </c>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr"/>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr"/>
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="10">
-        <v>1</v>
+        <v>44202.5208680556</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q3" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
@@ -2296,40 +2333,58 @@
         <v>11</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable (n/a)</t>
-        </is>
-      </c>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr"/>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr"/>
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
+      <c r="J4" s="0">
+        <v>100</v>
+      </c>
+      <c r="K4" s="10">
+        <v>44481.5832060185</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
@@ -2337,100 +2392,57 @@
         <v>11</v>
       </c>
       <c r="B5" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
           <t>Not applicable (n/a)</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable (n/a)</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable (n/a)</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable (n/a)</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr"/>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="inlineStr"/>
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="L5" s="0">
-        <v>0</v>
-      </c>
+      <c r="L5" s="0"/>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
         <v>11</v>
       </c>
       <c r="B6" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Spring</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Juvenile</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="J6" s="0">
-        <v>100</v>
-      </c>
-      <c r="K6" s="10">
-        <v>44202.5750578704</v>
-      </c>
-      <c r="L6" s="0">
-        <v>7</v>
-      </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N6" s="0" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="O6" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0" t="inlineStr"/>
+      <c r="N6" s="0" t="inlineStr"/>
+      <c r="O6" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
         <v>11</v>
       </c>
       <c r="B7" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
@@ -2442,9 +2454,24 @@
           <t>Spring</t>
         </is>
       </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
         </is>
       </c>
       <c r="J7" s="0">
@@ -2454,7 +2481,7 @@
         <v>44202.5208680556</v>
       </c>
       <c r="L7" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" s="0" t="inlineStr">
         <is>
@@ -2469,6 +2496,11 @@
       <c r="O7" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2477,58 +2509,96 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Spring</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="J8" s="0">
-        <v>100</v>
-      </c>
-      <c r="K8" s="10">
-        <v>44481.5832060185</v>
-      </c>
-      <c r="L8" s="0">
-        <v>7</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
+          <t>Not applicable (n/a)</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="F8" s="0" t="inlineStr"/>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0" t="inlineStr"/>
+      <c r="N8" s="0" t="inlineStr"/>
+      <c r="O8" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
         <v>11</v>
       </c>
       <c r="B9" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J9" s="0">
+        <v>249</v>
+      </c>
+      <c r="K9" s="10">
+        <v>44210.5213657407</v>
+      </c>
+      <c r="L9" s="0">
+        <v>6</v>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2537,11 +2607,70 @@
         <v>11</v>
       </c>
       <c r="B10" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J10" s="0">
+        <v>109</v>
+      </c>
+      <c r="K10" s="10">
+        <v>44237.5002893519</v>
+      </c>
+      <c r="L10" s="0">
+        <v>7</v>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
@@ -2572,14 +2701,29 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
       <c r="J11" s="0">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="K11" s="10">
-        <v>44202.5208680556</v>
+        <v>44251.5209143519</v>
       </c>
       <c r="L11" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
@@ -2594,6 +2738,11 @@
       <c r="O11" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q11" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2602,11 +2751,70 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J12" s="0">
+        <v>197</v>
+      </c>
+      <c r="K12" s="10">
+        <v>44265.5004166667</v>
+      </c>
+      <c r="L12" s="0">
+        <v>7</v>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q12" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
@@ -2637,19 +2845,29 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="J13" s="0">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="K13" s="10">
-        <v>44210.5213657407</v>
+        <v>44294.5418171296</v>
       </c>
       <c r="L13" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" s="0" t="inlineStr">
         <is>
@@ -2664,6 +2882,11 @@
       <c r="O13" s="0" t="inlineStr">
         <is>
           <t>Whole body</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
@@ -2694,16 +2917,26 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="J14" s="0">
-        <v>109</v>
+        <v>500</v>
       </c>
       <c r="K14" s="10">
-        <v>44237.5002893519</v>
+        <v>44301.5418865741</v>
       </c>
       <c r="L14" s="0">
         <v>7</v>
@@ -2723,13 +2956,18 @@
           <t>Whole body</t>
         </is>
       </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0">
         <v>11</v>
       </c>
       <c r="B15" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
@@ -2751,16 +2989,26 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="J15" s="0">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="K15" s="10">
-        <v>44251.5209143519</v>
+        <v>44600.5106365741</v>
       </c>
       <c r="L15" s="0">
         <v>7</v>
@@ -2780,13 +3028,18 @@
           <t>Whole body</t>
         </is>
       </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0">
         <v>11</v>
       </c>
       <c r="B16" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
@@ -2808,16 +3061,26 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Parrot-Phelan RST</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="J16" s="0">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="K16" s="10">
-        <v>44265.5004166667</v>
+        <v>44607.5523032407</v>
       </c>
       <c r="L16" s="0">
         <v>7</v>
@@ -2837,13 +3100,18 @@
           <t>Whole body</t>
         </is>
       </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
         <v>11</v>
       </c>
       <c r="B17" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
@@ -2865,16 +3133,21 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Parrott-Phelan e-test release site</t>
+        </is>
+      </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="J17" s="0">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K17" s="10">
-        <v>44294.5418171296</v>
+        <v>44628.555775463</v>
       </c>
       <c r="L17" s="0">
         <v>7</v>
@@ -2894,234 +3167,71 @@
           <t>Whole body</t>
         </is>
       </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="0">
-        <v>11</v>
-      </c>
-      <c r="B18" s="0">
-        <v>268</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Spring</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>Juvenile</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I18" s="0" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="J18" s="0">
-        <v>500</v>
-      </c>
-      <c r="K18" s="10">
-        <v>44301.5418865741</v>
-      </c>
-      <c r="L18" s="0">
-        <v>7</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N18" s="0" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="O18" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0" t="inlineStr"/>
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr"/>
+      <c r="F18" s="0" t="inlineStr"/>
+      <c r="I18" s="0" t="inlineStr"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0" t="inlineStr"/>
+      <c r="N18" s="0" t="inlineStr"/>
+      <c r="O18" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="0">
-        <v>11</v>
-      </c>
-      <c r="B19" s="0">
-        <v>269</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>Spring</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>Juvenile</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="J19" s="0">
-        <v>250</v>
-      </c>
-      <c r="K19" s="10">
-        <v>44600.5106365741</v>
-      </c>
-      <c r="L19" s="0">
-        <v>7</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="O19" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0" t="inlineStr"/>
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr"/>
+      <c r="F19" s="0" t="inlineStr"/>
+      <c r="I19" s="0" t="inlineStr"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0" t="inlineStr"/>
+      <c r="N19" s="0" t="inlineStr"/>
+      <c r="O19" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="0">
-        <v>11</v>
-      </c>
-      <c r="B20" s="0">
-        <v>270</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Spring</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>Juvenile</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="J20" s="0">
-        <v>249</v>
-      </c>
-      <c r="K20" s="10">
-        <v>44607.5523032407</v>
-      </c>
-      <c r="L20" s="0">
-        <v>7</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="O20" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0" t="inlineStr"/>
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr"/>
+      <c r="F20" s="0" t="inlineStr"/>
+      <c r="I20" s="0" t="inlineStr"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0" t="inlineStr"/>
+      <c r="N20" s="0" t="inlineStr"/>
+      <c r="O20" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="0">
-        <v>11</v>
-      </c>
-      <c r="B21" s="0">
-        <v>271</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Spring</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>Juvenile</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="I21" s="0" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="J21" s="0">
-        <v>185</v>
-      </c>
-      <c r="K21" s="10">
-        <v>44628.555775463</v>
-      </c>
-      <c r="L21" s="0">
-        <v>7</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N21" s="0" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="O21" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0" t="inlineStr"/>
+      <c r="D21" s="0" t="inlineStr"/>
+      <c r="E21" s="0" t="inlineStr"/>
+      <c r="F21" s="0" t="inlineStr"/>
+      <c r="I21" s="0" t="inlineStr"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0" t="inlineStr"/>
+      <c r="N21" s="0" t="inlineStr"/>
+      <c r="O21" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
